--- a/ACUtilities/src/test/resources/testdata/ExcelReader.xlsx
+++ b/ACUtilities/src/test/resources/testdata/ExcelReader.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="115">
   <si>
     <t>Severity</t>
   </si>
@@ -105,6 +105,264 @@
   </si>
   <si>
     <t>(CR_174_v0.9.0)Column header labels Event ID, Event Code appearing incorrectly</t>
+  </si>
+  <si>
+    <t>Approving Authority</t>
+  </si>
+  <si>
+    <t>Major</t>
+  </si>
+  <si>
+    <t>Usability/GUI Defect</t>
+  </si>
+  <si>
+    <t>Reporting Authority</t>
+  </si>
+  <si>
+    <t>Sessional Pass Admin</t>
+  </si>
+  <si>
+    <t>Police Verification Authority</t>
+  </si>
+  <si>
+    <t>(CR-149) – Member registered despite invalid details and invalid file extensions in page Press Media Member → Registration</t>
+  </si>
+  <si>
+    <t>Registration successful even when invalid photo/document/address proof formats were uploaded. in page Press Media Member → Registration</t>
+  </si>
+  <si>
+    <t>(CR-149) – Incorrect error message when Aadhaar contains 12 blank spaces in page Press Media Member → Registration</t>
+  </si>
+  <si>
+    <t>System displays wrong message (“Aadhaar exists / only positive numbers allowed”) instead of correct validation. in page Press Media Member → Registration</t>
+  </si>
+  <si>
+    <t>(CR-149) – Member registered with photo size exceeding 3MB in page Press Media Member → Registration</t>
+  </si>
+  <si>
+    <t>File size restriction not applied; system accepts image larger than 3MB. in page Press Media Member → Registration</t>
+  </si>
+  <si>
+    <t>(CR-149) – Member registered with invalid photo extension in page Press Media Member → Registration</t>
+  </si>
+  <si>
+    <t>Registration successful with unsupported file type for photograph. in page Press Media Member → Registration</t>
+  </si>
+  <si>
+    <t>(CR-149) – Member registered with address proof larger than 3MB in page Press Media Member → Registration</t>
+  </si>
+  <si>
+    <t>System accepts file size beyond the allowed limit. in page Press Media Member → Registration</t>
+  </si>
+  <si>
+    <t>(CR-149) – Member registered with invalid address proof extension in page Press Media Member → Registration</t>
+  </si>
+  <si>
+    <t>Registration successful with unsupported file type for address proof. in page Press Media Member → Registration</t>
+  </si>
+  <si>
+    <t>(CR-149) – Member registered with document size exceeding 3MB in page Press Media Member → Registration</t>
+  </si>
+  <si>
+    <t>Document file size validation is not enforced. on the page Press Media Member → Registration</t>
+  </si>
+  <si>
+    <t>(CR-149) – Member registered with invalid document extension in page Press Media Member → Registration</t>
+  </si>
+  <si>
+    <t>Registration successful even when invalid document format is uploaded. in page Press Media Member → Registration</t>
+  </si>
+  <si>
+    <t>(CR-149) – Contact number update succeeds but no success message appears in Press Media Member → Registere List →View→Update</t>
+  </si>
+  <si>
+    <t>System updates contact number but expected confirmation message is not displayed. in Press Media Member → Registere List →View→Update</t>
+  </si>
+  <si>
+    <t>(CR-149) – Updated member details not displayed properly in Press Media Member → Registere List →View</t>
+  </si>
+  <si>
+    <t>Incorrect or incomplete details shown in View screen. in Press Media Member → Registere List →View→Update</t>
+  </si>
+  <si>
+    <t>(CR-149) – Request initiated but incorrect system behavior observed in page Press Media Member → Request for I-Card</t>
+  </si>
+  <si>
+    <t>Request is initiated but fails expected flow (despite valid details). in page Press Media Member → Request for I-Card</t>
+  </si>
+  <si>
+    <t>(CR-149) – I-Card request accepted with document size above 3MB in page Press Media Member → Request for I-Card</t>
+  </si>
+  <si>
+    <t>System accepts file size of 10MB and request goes to approver. in page Press Media Member → Request for I-Card</t>
+  </si>
+  <si>
+    <t>(CR-149) – No error when uploading invalid document extension in page Press Media Member → Request for I-Card</t>
+  </si>
+  <si>
+    <t>System fails to block invalid extension; expected error not displayed. in page Press Media Member → Request for I-Card</t>
+  </si>
+  <si>
+    <t>(CR-149) – Valid From / Valid Upto not auto-filled based on session in page Press Media Member → Request for I-Card</t>
+  </si>
+  <si>
+    <t>Date fields are not pre-filled after session selection. in page Press Media Member → Request for I-Card</t>
+  </si>
+  <si>
+    <t>(CR-149) – Valid From editable beyond session date range in page Press Media Member → Request for I-Card</t>
+  </si>
+  <si>
+    <t>System allows editing Valid From outside allowed session range. in page Press Media Member → Request for I-Card</t>
+  </si>
+  <si>
+    <t>(CR-149) – Valid Upto editable beyond session date range in page Press Media Member → Request for I-Card</t>
+  </si>
+  <si>
+    <t>System allows editing Valid Upto outside allowed session range. in page Press Media Member → Request for I-Card</t>
+  </si>
+  <si>
+    <t>(CR-149) – Card lost request edit fails due to 'Unauthorized to perform action' in Press Media Member → Update I-Card Detail</t>
+  </si>
+  <si>
+    <t>System prevents admin from submitting valid card-lost request updates. in Press Media Member → Update I-Card Detail</t>
+  </si>
+  <si>
+    <t>(CR-149) – Promotion pass request not sent to approving authority in Press Media Member → Update I-Card Detail</t>
+  </si>
+  <si>
+    <t>Request does not reach approving authority despite valid inputs. in Press Media Member → Update I-Card Detail</t>
+  </si>
+  <si>
+    <t>(CR-149) – Invalid document extension allowed during new pass update in Press Media Member → Update I-Card Detail</t>
+  </si>
+  <si>
+    <t>System does not show required error message for invalid formats. in Press Media Member → Update I-Card Detail</t>
+  </si>
+  <si>
+    <t>(CR-149) – Incorrect current address displayed (,,,, instead of NA) in Approving Authority → Recommended Press Media Pending List</t>
+  </si>
+  <si>
+    <t>Incorrect format shown for empty current address field. in page Approving Authority → Recommended Press Media Pending List</t>
+  </si>
+  <si>
+    <t>(CR-149) – Approving Authority able to send request without Access Permissionin page Approving Authority → Press Media Recommendation Details</t>
+  </si>
+  <si>
+    <t>The system allows forwarding requests without a mandatory access permission update on the page Approving Authority → Press Media Recommendation Details.</t>
+  </si>
+  <si>
+    <t>(CR-149) – Unable to Reject I-Card request (when fascia=Yes) in page Approving Authority → Recommendation Details → Action Form</t>
+  </si>
+  <si>
+    <t>The reject option does not work when selecting Generic Sticky/Thermal Fascia pass on page Approving Authority → Recommendation Details → Action Form</t>
+  </si>
+  <si>
+    <t>(CR-149) – Detailed report cannot be downloaded in page Reporting Authority → Press Media I-Card Report List</t>
+  </si>
+  <si>
+    <t>The user can view/search, but there is no option available to download a detailed report in the page Reporting Authority → Press Media I-Card Report List.</t>
+  </si>
+  <si>
+    <t>Loksabha Employee</t>
+  </si>
+  <si>
+    <t>(CR-150) – Vehicle added successfully even when invalid data is entered in all fields in page Loksabha Employee – Add Vehicle</t>
+  </si>
+  <si>
+    <t>System is allowing vehicle addition with completely invalid data; expected validation error not displayed. in page Loksabha Employee – Add Vehicle</t>
+  </si>
+  <si>
+    <t>(CR-150) – Previous Issued Pass details not appearing correctly in Employee Vehicle Request Details</t>
+  </si>
+  <si>
+    <t>Details under Previous Issued Pass section are not appearing correctly; incorrect/missing data in page Approving Authority – Previous Issued Pass → Employee Vehicle Request Details</t>
+  </si>
+  <si>
+    <t>Rajya Sabha Employee</t>
+  </si>
+  <si>
+    <t>(CR-150) – Vehicle added successfully even when invalid data is entered (Rajya Sabha Employee)</t>
+  </si>
+  <si>
+    <t>System incorrectly allows vehicle addition with invalid inputs; expected error message not displayed. in page Rajya Sabha Employee – Add Vehicle</t>
+  </si>
+  <si>
+    <t>(CR-150) – Incorrect details displayed in Previous Issued Pass section (Duplicate scenario)</t>
+  </si>
+  <si>
+    <t>Previous Issued Pass details not displayed correctly for Employee Vehicle Request Details. in page Approving Authority – Previous Issued Pass → Employee Vehicle Request Details</t>
+  </si>
+  <si>
+    <t>(CR-151) – Incorrect label “Orgnisation” displayed in Recommended Visitor Verification Pending List</t>
+  </si>
+  <si>
+    <t>The label “Organisation” is misspelled as “Orgnisation” in the pending list screen. in page Visitor Requests – Recommended Visitor Verification Pending List</t>
+  </si>
+  <si>
+    <t>(CR-151) – Sorting by Name fails with 'Internal Server Error'</t>
+  </si>
+  <si>
+    <t>When sorting by Name, the system displays an “Internal Server Error” and sorting fails. in page Visitor Requests – Recommended Visitor Verification Pending List</t>
+  </si>
+  <si>
+    <t>(CR-151) – Sorting by Category and Organization fails with 'Internal Server Error'</t>
+  </si>
+  <si>
+    <t>Sorting the list by Category and Organization results in “Internal Server Error.” in page Visitor Requests – Recommended Visitor Verification Pending List</t>
+  </si>
+  <si>
+    <t>(CR-151) – Sorting by Application ID fails with 'Internal Server Error'</t>
+  </si>
+  <si>
+    <t>Sorting by Application ID fails and shows “Internal Server Error.” in page Visitor Requests – Recommended Visitor Verification Pending List</t>
+  </si>
+  <si>
+    <t>(CR-151) – Sorting by Recommended By fails with 'Internal Server Error'</t>
+  </si>
+  <si>
+    <t>Sorting by Recommended By does not work; error “Internal Server Error” appears.in page Visitor Requests – Recommended Visitor Verification Pending List</t>
+  </si>
+  <si>
+    <t>(CR-151) – Sorting by Recommended Date fails with 'Internal Server Error'</t>
+  </si>
+  <si>
+    <t>Sorting by Recommended Date throws “Internal Server Error.” in page Visitor Requests – Recommended Visitor Verification Pending List</t>
+  </si>
+  <si>
+    <t>(CR-151) – Incorrect label 'Orgnisation' displayed in Visitor Pass Request Sent For Verification List</t>
+  </si>
+  <si>
+    <t>The label is incorrectly spelled as “Orgnisation” instead of “Organisation.” in page Visitor Requests – Recommended Visitor Verification Pending List</t>
+  </si>
+  <si>
+    <t>(CR-151) – Data not moving from ‘Request Sent For Verification List’ to ‘Visitor Verification Status List’ after export</t>
+  </si>
+  <si>
+    <t>After exporting the Excel sheet, the data does not move to the Visitor Verification Status List as expected. in page Visitor Requests – Recommended Visitor Verification Pending List</t>
+  </si>
+  <si>
+    <t>(CR-152) – Sorting by Application ID not working</t>
+  </si>
+  <si>
+    <t>Police Verification Authority is unable to sort the Recommended Visitor Verification Pending List by Application ID; sorting functionality does not work. in page Visitor Requests – Recommended Visitor Verification Pending List</t>
+  </si>
+  <si>
+    <t>(CR-152) – Confirmation popup not displayed when sending data to PCC</t>
+  </si>
+  <si>
+    <t>The popup message “Are you sure? you want to send for verification” does not appear when clicking on "Send Data to PCC". in page Visitor Requests – Recommended Visitor Verification Pending List</t>
+  </si>
+  <si>
+    <t>(CR-152) – View icon column mislabeled as ‘Action’ in page Visitor Requests – Sent For Verification List (Column View)</t>
+  </si>
+  <si>
+    <t>The View icon is available, but the column heading incorrectly shows “Action” instead of the correct label. in page Visitor Requests – Sent For Verification List (Column View)</t>
+  </si>
+  <si>
+    <t>(CR-152) – Unable to update visitor time after request expiry</t>
+  </si>
+  <si>
+    <t>Police Verification Authority cannot update the visitor time if the previously requested time has expired, even though the system should allow it. in page Visitor Requests – Recommended Visitor Verification Pending List</t>
   </si>
 </sst>
 </file>
@@ -466,7 +724,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -641,6 +899,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -686,7 +974,7 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="17" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -701,9 +989,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -711,12 +996,6 @@
     </xf>
     <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -733,16 +1012,28 @@
     <xf numFmtId="0" fontId="20" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="34" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1088,20 +1379,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F21"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+    <sheetView tabSelected="1" topLeftCell="A26" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="24.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" style="1" customWidth="1"/>
     <col min="2" max="2" width="16.140625" customWidth="1"/>
     <col min="3" max="3" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.5703125" style="2" customWidth="1"/>
-    <col min="5" max="5" width="66.42578125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="107.85546875" style="19" customWidth="1"/>
+    <col min="5" max="5" width="71.7109375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="107.85546875" style="14" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="16.5" thickBot="1">
@@ -1114,287 +1405,799 @@
       <c r="C1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A2" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2" s="17" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A3" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B3" s="15" t="s">
+    <row r="2" spans="1:6" ht="27" thickBot="1">
+      <c r="A2" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>35</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="27" thickBot="1">
+      <c r="A3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="27" thickBot="1">
+      <c r="A4" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="27" thickBot="1">
+      <c r="A5" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="27" thickBot="1">
+      <c r="A6" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C6" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="27" thickBot="1">
+      <c r="A7" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F7" s="19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="27" thickBot="1">
+      <c r="A8" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F8" s="19" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="27" thickBot="1">
+      <c r="A9" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>49</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="27" thickBot="1">
+      <c r="A10" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C10" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="19" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="27" thickBot="1">
+      <c r="A11" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="27" thickBot="1">
+      <c r="A12" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D12" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="27" thickBot="1">
+      <c r="A13" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B13" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>57</v>
+      </c>
+      <c r="F13" s="19" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="27" thickBot="1">
+      <c r="A14" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="F14" s="19" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="27" thickBot="1">
+      <c r="A15" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="F3" s="16" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A4" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B4" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="16" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A5" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B5" s="15" t="s">
+      <c r="C15" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>61</v>
+      </c>
+      <c r="F15" s="19" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="27" thickBot="1">
+      <c r="A16" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B16" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="F5" s="16" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A6" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="F6" s="16" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A7" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B7" s="15" t="s">
+      <c r="C16" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>63</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="27" thickBot="1">
+      <c r="A17" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B17" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>25</v>
-      </c>
-      <c r="F7" s="16" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A8" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B8" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="F8" s="16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B9" s="15" t="s">
+      <c r="C17" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="27" thickBot="1">
+      <c r="A18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C18" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D18" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="27" thickBot="1">
+      <c r="A19" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C19" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D19" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="27" thickBot="1">
+      <c r="A20" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>71</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="27" thickBot="1">
+      <c r="A21" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B21" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="16" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A10" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="16"/>
-    </row>
-    <row r="12" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="9"/>
-      <c r="F12" s="16"/>
-    </row>
-    <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="9"/>
-      <c r="F13" s="16"/>
-    </row>
-    <row r="14" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="9"/>
-      <c r="F14" s="16"/>
-    </row>
-    <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="16"/>
-    </row>
-    <row r="16" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="9"/>
-      <c r="F16" s="16"/>
-    </row>
-    <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="9"/>
-      <c r="F17" s="16"/>
-    </row>
-    <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="9"/>
-      <c r="F18" s="16"/>
-    </row>
-    <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="9"/>
-      <c r="F19" s="16"/>
-    </row>
-    <row r="20" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="16"/>
-    </row>
-    <row r="21" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="9"/>
-      <c r="F21" s="16"/>
+      <c r="C21" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>73</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="27" thickBot="1">
+      <c r="A22" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C22" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="27" thickBot="1">
+      <c r="A23" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="27" thickBot="1">
+      <c r="A24" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F24" s="19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="27" thickBot="1">
+      <c r="A25" s="17" t="s">
+        <v>81</v>
+      </c>
+      <c r="B25" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>82</v>
+      </c>
+      <c r="F25" s="19" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="27" thickBot="1">
+      <c r="A26" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B26" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>84</v>
+      </c>
+      <c r="F26" s="19" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="27" thickBot="1">
+      <c r="A27" s="17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C27" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="F27" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="27" thickBot="1">
+      <c r="A28" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B28" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="F28" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="27" thickBot="1">
+      <c r="A29" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="F29" s="19" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="27" thickBot="1">
+      <c r="A30" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E30" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="F30" s="19" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="27" thickBot="1">
+      <c r="A31" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E31" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F31" s="19" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="27" thickBot="1">
+      <c r="A32" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="F32" s="19" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="27" thickBot="1">
+      <c r="A33" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B33" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E33" s="19" t="s">
+        <v>99</v>
+      </c>
+      <c r="F33" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="27" thickBot="1">
+      <c r="A34" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E34" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="F34" s="19" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="27" thickBot="1">
+      <c r="A35" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B35" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E35" s="19" t="s">
+        <v>103</v>
+      </c>
+      <c r="F35" s="19" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="27" thickBot="1">
+      <c r="A36" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E36" s="19" t="s">
+        <v>105</v>
+      </c>
+      <c r="F36" s="19" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="27" thickBot="1">
+      <c r="A37" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B37" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E37" s="19" t="s">
+        <v>107</v>
+      </c>
+      <c r="F37" s="19" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="27" thickBot="1">
+      <c r="A38" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B38" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E38" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="F38" s="19" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="27" thickBot="1">
+      <c r="A39" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B39" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="F39" s="19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="27" thickBot="1">
+      <c r="A40" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>8</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>4</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>114</v>
+      </c>
     </row>
   </sheetData>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B20:B1048576">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="B41:B1048576">
       <formula1>"Enhancement,Major,Minor,Medium"</formula1>
     </dataValidation>
   </dataValidations>
@@ -1422,272 +2225,272 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="39" thickBot="1">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="C1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="39" thickBot="1">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E2" s="14" t="s">
+      <c r="C2" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="14" t="s">
+      <c r="F2" s="11" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A3" s="18" t="s">
+      <c r="A3" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="14" t="s">
+      <c r="C3" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D3" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="F3" s="14" t="s">
+      <c r="F3" s="11" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="39" thickBot="1">
-      <c r="A4" s="18" t="s">
+      <c r="A4" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E4" s="14" t="s">
+      <c r="C4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="F4" s="14" t="s">
+      <c r="F4" s="11" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="39" thickBot="1">
-      <c r="A5" s="18" t="s">
+      <c r="A5" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E5" s="14" t="s">
+      <c r="C5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="F5" s="14" t="s">
+      <c r="F5" s="11" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="39" thickBot="1">
-      <c r="A6" s="18" t="s">
+      <c r="A6" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E6" s="14" t="s">
+      <c r="C6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E6" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="F6" s="14" t="s">
+      <c r="F6" s="11" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E7" s="14" t="s">
+      <c r="C7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D7" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E7" s="11" t="s">
         <v>26</v>
       </c>
-      <c r="F7" s="14" t="s">
+      <c r="F7" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="39" thickBot="1">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E8" s="14" t="s">
+      <c r="C8" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E8" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="F8" s="11" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="26.25" thickBot="1">
-      <c r="A9" s="18" t="s">
+      <c r="A9" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="C9" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="E9" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="11" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A10" s="13"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="A10" s="10"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="6"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="11"/>
+      <c r="F10" s="11"/>
     </row>
     <row r="11" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A11" s="13"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
+      <c r="A11" s="10"/>
+      <c r="B11" s="12"/>
+      <c r="C11" s="6"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="11"/>
+      <c r="F11" s="11"/>
     </row>
     <row r="12" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A12" s="13"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
+      <c r="A12" s="10"/>
+      <c r="B12" s="12"/>
+      <c r="C12" s="6"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="11"/>
+      <c r="F12" s="11"/>
     </row>
     <row r="13" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A13" s="13"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="A13" s="10"/>
+      <c r="B13" s="12"/>
+      <c r="C13" s="6"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="11"/>
+      <c r="F13" s="11"/>
     </row>
     <row r="14" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A14" s="13"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
+      <c r="A14" s="10"/>
+      <c r="B14" s="12"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
     </row>
     <row r="15" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A15" s="13"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="12"/>
+      <c r="C15" s="6"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
     </row>
     <row r="16" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A16" s="13"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="12"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
     </row>
     <row r="17" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A17" s="13"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="6"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
     </row>
     <row r="18" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A18" s="13"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
+      <c r="A18" s="10"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="6"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
     </row>
     <row r="19" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="15"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
+      <c r="A19" s="10"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="6"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="11"/>
+      <c r="F19" s="11"/>
     </row>
     <row r="20" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A20" s="13"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="14"/>
-      <c r="F20" s="14"/>
+      <c r="A20" s="10"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="11"/>
+      <c r="F20" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
